--- a/6月份用户保险信息登记表.xlsx
+++ b/6月份用户保险信息登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20元" sheetId="1" r:id="rId1"/>
@@ -10291,9 +10291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10365,6 +10362,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10381,60 +10381,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -10609,6 +10555,60 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -10963,8 +10963,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:XFD267"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
@@ -10984,18 +10984,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -14176,7 +14176,7 @@
       <c r="E86" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="F86" s="66" t="s">
+      <c r="F86" s="65" t="s">
         <v>2452</v>
       </c>
       <c r="G86" s="21" t="s">
@@ -14214,7 +14214,7 @@
       <c r="E87" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="70" t="s">
         <v>2453</v>
       </c>
       <c r="G87" s="20" t="s">
@@ -14263,7 +14263,7 @@
       <c r="E88" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="F88" s="49" t="s">
         <v>2454</v>
       </c>
       <c r="G88" s="22" t="s">
@@ -18009,7 +18009,7 @@
       <c r="K184" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L184" s="57" t="s">
+      <c r="L184" s="56" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -18047,7 +18047,7 @@
       <c r="K185" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L185" s="57" t="s">
+      <c r="L185" s="56" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
       <c r="K186" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L186" s="57" t="s">
+      <c r="L186" s="56" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -18123,7 +18123,7 @@
       <c r="K187" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L187" s="57" t="s">
+      <c r="L187" s="56" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -18161,7 +18161,7 @@
       <c r="K188" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L188" s="57" t="s">
+      <c r="L188" s="56" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       <c r="K189" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L189" s="57" t="s">
+      <c r="L189" s="56" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       <c r="K190" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L190" s="57" t="s">
+      <c r="L190" s="56" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       <c r="K191" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L191" s="57" t="s">
+      <c r="L191" s="56" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
       <c r="K192" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L192" s="57" t="s">
+      <c r="L192" s="56" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18351,7 +18351,7 @@
       <c r="K193" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L193" s="57" t="s">
+      <c r="L193" s="56" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       <c r="K194" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L194" s="57" t="s">
+      <c r="L194" s="56" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -18427,7 +18427,7 @@
       <c r="K195" s="8" t="s">
         <v>1925</v>
       </c>
-      <c r="L195" s="57" t="s">
+      <c r="L195" s="56" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
       <c r="K196" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L196" s="57"/>
+      <c r="L196" s="56"/>
     </row>
     <row r="197" spans="1:12" ht="15.95" customHeight="1">
       <c r="A197" s="44" t="s">
@@ -18501,7 +18501,7 @@
       <c r="K197" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L197" s="57"/>
+      <c r="L197" s="56"/>
     </row>
     <row r="198" spans="1:12" ht="15.95" customHeight="1">
       <c r="A198" s="44" t="s">
@@ -18537,7 +18537,7 @@
       <c r="K198" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L198" s="57"/>
+      <c r="L198" s="56"/>
     </row>
     <row r="199" spans="1:12" ht="15.95" customHeight="1">
       <c r="A199" s="44" t="s">
@@ -18573,7 +18573,7 @@
       <c r="K199" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L199" s="57"/>
+      <c r="L199" s="56"/>
     </row>
     <row r="200" spans="1:12" ht="15.95" customHeight="1">
       <c r="A200" s="44" t="s">
@@ -18609,7 +18609,7 @@
       <c r="K200" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L200" s="57"/>
+      <c r="L200" s="56"/>
     </row>
     <row r="201" spans="1:12" ht="15.95" customHeight="1">
       <c r="A201" s="44" t="s">
@@ -18645,7 +18645,7 @@
       <c r="K201" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L201" s="57" t="s">
+      <c r="L201" s="56" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -18683,7 +18683,7 @@
       <c r="K202" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L202" s="57" t="s">
+      <c r="L202" s="56" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -18697,13 +18697,13 @@
       <c r="C203" s="7" t="s">
         <v>2074</v>
       </c>
-      <c r="D203" s="46" t="s">
+      <c r="D203" s="45" t="s">
         <v>2075</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F203" s="54" t="s">
+      <c r="F203" s="53" t="s">
         <v>2076</v>
       </c>
       <c r="G203" s="7" t="s">
@@ -18712,16 +18712,16 @@
       <c r="H203" s="8" t="s">
         <v>2077</v>
       </c>
-      <c r="I203" s="46">
+      <c r="I203" s="45">
         <v>13797071592</v>
       </c>
-      <c r="J203" s="46" t="s">
+      <c r="J203" s="45" t="s">
         <v>2078</v>
       </c>
       <c r="K203" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="L203" s="46" t="s">
+      <c r="L203" s="45" t="s">
         <v>2079</v>
       </c>
     </row>
@@ -18735,25 +18735,25 @@
       <c r="C204" s="7" t="s">
         <v>2081</v>
       </c>
-      <c r="D204" s="46" t="s">
+      <c r="D204" s="45" t="s">
         <v>2082</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F204" s="54" t="s">
+      <c r="F204" s="53" t="s">
         <v>2083</v>
       </c>
-      <c r="G204" s="55" t="s">
+      <c r="G204" s="54" t="s">
         <v>1908</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>2084</v>
       </c>
-      <c r="I204" s="46">
+      <c r="I204" s="45">
         <v>15337258659</v>
       </c>
-      <c r="J204" s="46" t="s">
+      <c r="J204" s="45" t="s">
         <v>2085</v>
       </c>
       <c r="K204" s="8" t="s">
@@ -18773,13 +18773,13 @@
       <c r="C205" s="7" t="s">
         <v>2088</v>
       </c>
-      <c r="D205" s="46" t="s">
+      <c r="D205" s="45" t="s">
         <v>2089</v>
       </c>
       <c r="E205" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F205" s="54" t="s">
+      <c r="F205" s="53" t="s">
         <v>2090</v>
       </c>
       <c r="G205" s="7" t="s">
@@ -18788,10 +18788,10 @@
       <c r="H205" s="8" t="s">
         <v>2091</v>
       </c>
-      <c r="I205" s="46">
+      <c r="I205" s="45">
         <v>13476820008</v>
       </c>
-      <c r="J205" s="46" t="s">
+      <c r="J205" s="45" t="s">
         <v>2092</v>
       </c>
       <c r="K205" s="8" t="s">
@@ -18811,13 +18811,13 @@
       <c r="C206" s="7" t="s">
         <v>2095</v>
       </c>
-      <c r="D206" s="46" t="s">
+      <c r="D206" s="45" t="s">
         <v>2096</v>
       </c>
       <c r="E206" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F206" s="54" t="s">
+      <c r="F206" s="53" t="s">
         <v>2097</v>
       </c>
       <c r="G206" s="7" t="s">
@@ -18826,10 +18826,10 @@
       <c r="H206" s="8" t="s">
         <v>2098</v>
       </c>
-      <c r="I206" s="46">
+      <c r="I206" s="45">
         <v>15071357226</v>
       </c>
-      <c r="J206" s="46" t="s">
+      <c r="J206" s="45" t="s">
         <v>2099</v>
       </c>
       <c r="K206" s="8" t="s">
@@ -18849,13 +18849,13 @@
       <c r="C207" s="7" t="s">
         <v>2102</v>
       </c>
-      <c r="D207" s="46" t="s">
+      <c r="D207" s="45" t="s">
         <v>2103</v>
       </c>
       <c r="E207" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F207" s="54" t="s">
+      <c r="F207" s="53" t="s">
         <v>2104</v>
       </c>
       <c r="G207" s="7" t="s">
@@ -18864,10 +18864,10 @@
       <c r="H207" s="8" t="s">
         <v>2105</v>
       </c>
-      <c r="I207" s="46">
+      <c r="I207" s="45">
         <v>15972953636</v>
       </c>
-      <c r="J207" s="46" t="s">
+      <c r="J207" s="45" t="s">
         <v>2106</v>
       </c>
       <c r="K207" s="8" t="s">
@@ -18887,13 +18887,13 @@
       <c r="C208" s="7" t="s">
         <v>2108</v>
       </c>
-      <c r="D208" s="46" t="s">
+      <c r="D208" s="45" t="s">
         <v>2109</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="F208" s="54" t="s">
+      <c r="F208" s="53" t="s">
         <v>2110</v>
       </c>
       <c r="G208" s="7" t="s">
@@ -18902,10 +18902,10 @@
       <c r="H208" s="8" t="s">
         <v>2111</v>
       </c>
-      <c r="I208" s="46">
+      <c r="I208" s="45">
         <v>82934497</v>
       </c>
-      <c r="J208" s="46" t="s">
+      <c r="J208" s="45" t="s">
         <v>2112</v>
       </c>
       <c r="K208" s="8" t="s">
@@ -19163,7 +19163,7 @@
       <c r="I215" s="7" t="s">
         <v>2185</v>
       </c>
-      <c r="J215" s="46" t="s">
+      <c r="J215" s="45" t="s">
         <v>2186</v>
       </c>
       <c r="K215" s="3" t="s">
@@ -19248,458 +19248,458 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A218" s="53" t="s">
+      <c r="A218" s="52" t="s">
         <v>2315</v>
       </c>
-      <c r="B218" s="52" t="s">
+      <c r="B218" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="C218" s="52" t="s">
+      <c r="C218" s="51" t="s">
         <v>2250</v>
       </c>
-      <c r="D218" s="53" t="s">
+      <c r="D218" s="52" t="s">
         <v>653</v>
       </c>
-      <c r="E218" s="62" t="s">
+      <c r="E218" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F218" s="55" t="s">
+      <c r="F218" s="54" t="s">
         <v>666</v>
       </c>
-      <c r="G218" s="56" t="s">
+      <c r="G218" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H218" s="56" t="s">
+      <c r="H218" s="55" t="s">
         <v>667</v>
       </c>
-      <c r="I218" s="55" t="s">
+      <c r="I218" s="54" t="s">
         <v>2275</v>
       </c>
-      <c r="J218" s="56" t="s">
+      <c r="J218" s="55" t="s">
         <v>2276</v>
       </c>
-      <c r="K218" s="65" t="s">
+      <c r="K218" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L218" s="56" t="s">
+      <c r="L218" s="55" t="s">
         <v>2317</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A219" s="53" t="s">
+      <c r="A219" s="52" t="s">
         <v>2315</v>
       </c>
-      <c r="B219" s="52" t="s">
+      <c r="B219" s="51" t="s">
         <v>654</v>
       </c>
-      <c r="C219" s="52" t="s">
+      <c r="C219" s="51" t="s">
         <v>655</v>
       </c>
-      <c r="D219" s="53" t="s">
+      <c r="D219" s="52" t="s">
         <v>656</v>
       </c>
-      <c r="E219" s="62" t="s">
+      <c r="E219" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F219" s="55" t="s">
+      <c r="F219" s="54" t="s">
         <v>2277</v>
       </c>
-      <c r="G219" s="56" t="s">
+      <c r="G219" s="55" t="s">
         <v>669</v>
       </c>
-      <c r="H219" s="56" t="s">
+      <c r="H219" s="55" t="s">
         <v>2278</v>
       </c>
-      <c r="I219" s="55" t="s">
+      <c r="I219" s="54" t="s">
         <v>2279</v>
       </c>
-      <c r="J219" s="56" t="s">
+      <c r="J219" s="55" t="s">
         <v>2280</v>
       </c>
-      <c r="K219" s="65" t="s">
+      <c r="K219" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L219" s="56" t="s">
+      <c r="L219" s="55" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A220" s="53" t="s">
+      <c r="A220" s="52" t="s">
         <v>2315</v>
       </c>
-      <c r="B220" s="52" t="s">
+      <c r="B220" s="51" t="s">
         <v>657</v>
       </c>
-      <c r="C220" s="52" t="s">
+      <c r="C220" s="51" t="s">
         <v>2251</v>
       </c>
-      <c r="D220" s="53" t="s">
+      <c r="D220" s="52" t="s">
         <v>2252</v>
       </c>
-      <c r="E220" s="62" t="s">
+      <c r="E220" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F220" s="55" t="s">
+      <c r="F220" s="54" t="s">
         <v>2281</v>
       </c>
-      <c r="G220" s="56" t="s">
+      <c r="G220" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H220" s="56" t="s">
+      <c r="H220" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="I220" s="55" t="s">
+      <c r="I220" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="J220" s="56" t="s">
+      <c r="J220" s="55" t="s">
         <v>2282</v>
       </c>
-      <c r="K220" s="65" t="s">
+      <c r="K220" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L220" s="56" t="s">
+      <c r="L220" s="55" t="s">
         <v>2246</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A221" s="53" t="s">
+      <c r="A221" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B221" s="52" t="s">
+      <c r="B221" s="51" t="s">
         <v>660</v>
       </c>
-      <c r="C221" s="52" t="s">
+      <c r="C221" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="52" t="s">
         <v>662</v>
       </c>
-      <c r="E221" s="62" t="s">
+      <c r="E221" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F221" s="55" t="s">
+      <c r="F221" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="G221" s="56" t="s">
+      <c r="G221" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="H221" s="56" t="s">
+      <c r="H221" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="I221" s="55" t="s">
+      <c r="I221" s="54" t="s">
         <v>2283</v>
       </c>
-      <c r="J221" s="56" t="s">
+      <c r="J221" s="55" t="s">
         <v>2284</v>
       </c>
-      <c r="K221" s="65" t="s">
+      <c r="K221" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L221" s="56" t="s">
+      <c r="L221" s="55" t="s">
         <v>2246</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A222" s="53" t="s">
+      <c r="A222" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B222" s="52" t="s">
+      <c r="B222" s="51" t="s">
         <v>2253</v>
       </c>
-      <c r="C222" s="52" t="s">
+      <c r="C222" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="D222" s="53" t="s">
+      <c r="D222" s="52" t="s">
         <v>2254</v>
       </c>
-      <c r="E222" s="62" t="s">
+      <c r="E222" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F222" s="55" t="s">
+      <c r="F222" s="54" t="s">
         <v>681</v>
       </c>
-      <c r="G222" s="56" t="s">
+      <c r="G222" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H222" s="56" t="s">
+      <c r="H222" s="55" t="s">
         <v>682</v>
       </c>
-      <c r="I222" s="55" t="s">
+      <c r="I222" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="J222" s="56" t="s">
+      <c r="J222" s="55" t="s">
         <v>684</v>
       </c>
-      <c r="K222" s="65" t="s">
+      <c r="K222" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L222" s="56" t="s">
+      <c r="L222" s="55" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A223" s="53" t="s">
+      <c r="A223" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B223" s="52" t="s">
+      <c r="B223" s="51" t="s">
         <v>2255</v>
       </c>
-      <c r="C223" s="52" t="s">
+      <c r="C223" s="51" t="s">
         <v>2256</v>
       </c>
-      <c r="D223" s="53" t="s">
+      <c r="D223" s="52" t="s">
         <v>2257</v>
       </c>
-      <c r="E223" s="62" t="s">
+      <c r="E223" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F223" s="55" t="s">
+      <c r="F223" s="54" t="s">
         <v>2286</v>
       </c>
-      <c r="G223" s="56" t="s">
+      <c r="G223" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="H223" s="56" t="s">
+      <c r="H223" s="55" t="s">
         <v>2287</v>
       </c>
-      <c r="I223" s="55" t="s">
+      <c r="I223" s="54" t="s">
         <v>2288</v>
       </c>
-      <c r="J223" s="56" t="s">
+      <c r="J223" s="55" t="s">
         <v>2289</v>
       </c>
-      <c r="K223" s="65" t="s">
+      <c r="K223" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L223" s="56" t="s">
+      <c r="L223" s="55" t="s">
         <v>2317</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A224" s="53" t="s">
+      <c r="A224" s="52" t="s">
         <v>2242</v>
       </c>
-      <c r="B224" s="52" t="s">
+      <c r="B224" s="51" t="s">
         <v>2258</v>
       </c>
-      <c r="C224" s="52" t="s">
+      <c r="C224" s="51" t="s">
         <v>2259</v>
       </c>
-      <c r="D224" s="53" t="s">
+      <c r="D224" s="52" t="s">
         <v>2260</v>
       </c>
-      <c r="E224" s="62" t="s">
+      <c r="E224" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F224" s="55" t="s">
+      <c r="F224" s="54" t="s">
         <v>2290</v>
       </c>
-      <c r="G224" s="56" t="s">
+      <c r="G224" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H224" s="56" t="s">
+      <c r="H224" s="55" t="s">
         <v>2291</v>
       </c>
-      <c r="I224" s="55" t="s">
+      <c r="I224" s="54" t="s">
         <v>2292</v>
       </c>
-      <c r="J224" s="56" t="s">
+      <c r="J224" s="55" t="s">
         <v>2293</v>
       </c>
-      <c r="K224" s="65" t="s">
+      <c r="K224" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L224" s="56" t="s">
+      <c r="L224" s="55" t="s">
         <v>2246</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A225" s="53" t="s">
+      <c r="A225" s="52" t="s">
         <v>2242</v>
       </c>
-      <c r="B225" s="52" t="s">
+      <c r="B225" s="51" t="s">
         <v>2261</v>
       </c>
-      <c r="C225" s="52" t="s">
+      <c r="C225" s="51" t="s">
         <v>2262</v>
       </c>
-      <c r="D225" s="53" t="s">
+      <c r="D225" s="52" t="s">
         <v>1165</v>
       </c>
-      <c r="E225" s="62" t="s">
+      <c r="E225" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F225" s="55" t="s">
+      <c r="F225" s="54" t="s">
         <v>2294</v>
       </c>
-      <c r="G225" s="56" t="s">
+      <c r="G225" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="H225" s="56" t="s">
+      <c r="H225" s="55" t="s">
         <v>2295</v>
       </c>
-      <c r="I225" s="55" t="s">
+      <c r="I225" s="54" t="s">
         <v>2296</v>
       </c>
-      <c r="J225" s="56" t="s">
+      <c r="J225" s="55" t="s">
         <v>2297</v>
       </c>
-      <c r="K225" s="65" t="s">
+      <c r="K225" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L225" s="56" t="s">
+      <c r="L225" s="55" t="s">
         <v>2246</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A226" s="53" t="s">
+      <c r="A226" s="52" t="s">
         <v>2242</v>
       </c>
-      <c r="B226" s="52" t="s">
+      <c r="B226" s="51" t="s">
         <v>2263</v>
       </c>
-      <c r="C226" s="52" t="s">
+      <c r="C226" s="51" t="s">
         <v>2264</v>
       </c>
-      <c r="D226" s="53" t="s">
+      <c r="D226" s="52" t="s">
         <v>2265</v>
       </c>
-      <c r="E226" s="62" t="s">
+      <c r="E226" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F226" s="55" t="s">
+      <c r="F226" s="54" t="s">
         <v>2298</v>
       </c>
-      <c r="G226" s="56" t="s">
+      <c r="G226" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="H226" s="56" t="s">
+      <c r="H226" s="55" t="s">
         <v>2299</v>
       </c>
-      <c r="I226" s="55" t="s">
+      <c r="I226" s="54" t="s">
         <v>2300</v>
       </c>
-      <c r="J226" s="56" t="s">
+      <c r="J226" s="55" t="s">
         <v>2301</v>
       </c>
-      <c r="K226" s="65" t="s">
+      <c r="K226" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L226" s="56" t="s">
+      <c r="L226" s="55" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A227" s="53" t="s">
+      <c r="A227" s="52" t="s">
         <v>2316</v>
       </c>
-      <c r="B227" s="52" t="s">
+      <c r="B227" s="51" t="s">
         <v>2266</v>
       </c>
-      <c r="C227" s="52" t="s">
+      <c r="C227" s="51" t="s">
         <v>2267</v>
       </c>
-      <c r="D227" s="53" t="s">
+      <c r="D227" s="52" t="s">
         <v>2268</v>
       </c>
-      <c r="E227" s="62" t="s">
+      <c r="E227" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F227" s="55" t="s">
+      <c r="F227" s="54" t="s">
         <v>2302</v>
       </c>
-      <c r="G227" s="56" t="s">
+      <c r="G227" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H227" s="56" t="s">
+      <c r="H227" s="55" t="s">
         <v>2303</v>
       </c>
-      <c r="I227" s="55" t="s">
+      <c r="I227" s="54" t="s">
         <v>2304</v>
       </c>
-      <c r="J227" s="56" t="s">
+      <c r="J227" s="55" t="s">
         <v>2305</v>
       </c>
-      <c r="K227" s="65" t="s">
+      <c r="K227" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L227" s="56" t="s">
+      <c r="L227" s="55" t="s">
         <v>2317</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A228" s="53" t="s">
+      <c r="A228" s="52" t="s">
         <v>2316</v>
       </c>
-      <c r="B228" s="52" t="s">
+      <c r="B228" s="51" t="s">
         <v>2269</v>
       </c>
-      <c r="C228" s="52" t="s">
+      <c r="C228" s="51" t="s">
         <v>2270</v>
       </c>
-      <c r="D228" s="53" t="s">
+      <c r="D228" s="52" t="s">
         <v>2271</v>
       </c>
-      <c r="E228" s="62" t="s">
+      <c r="E228" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F228" s="55" t="s">
+      <c r="F228" s="54" t="s">
         <v>2306</v>
       </c>
-      <c r="G228" s="56" t="s">
+      <c r="G228" s="55" t="s">
         <v>2307</v>
       </c>
-      <c r="H228" s="56" t="s">
+      <c r="H228" s="55" t="s">
         <v>2308</v>
       </c>
-      <c r="I228" s="55" t="s">
+      <c r="I228" s="54" t="s">
         <v>2309</v>
       </c>
-      <c r="J228" s="56" t="s">
+      <c r="J228" s="55" t="s">
         <v>2310</v>
       </c>
-      <c r="K228" s="65" t="s">
+      <c r="K228" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L228" s="56" t="s">
+      <c r="L228" s="55" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A229" s="53" t="s">
+      <c r="A229" s="52" t="s">
         <v>2316</v>
       </c>
-      <c r="B229" s="52" t="s">
+      <c r="B229" s="51" t="s">
         <v>2272</v>
       </c>
-      <c r="C229" s="52" t="s">
+      <c r="C229" s="51" t="s">
         <v>2273</v>
       </c>
-      <c r="D229" s="53" t="s">
+      <c r="D229" s="52" t="s">
         <v>2274</v>
       </c>
-      <c r="E229" s="62" t="s">
+      <c r="E229" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F229" s="55" t="s">
+      <c r="F229" s="54" t="s">
         <v>2311</v>
       </c>
-      <c r="G229" s="56" t="s">
+      <c r="G229" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H229" s="56" t="s">
+      <c r="H229" s="55" t="s">
         <v>2312</v>
       </c>
-      <c r="I229" s="55" t="s">
+      <c r="I229" s="54" t="s">
         <v>2313</v>
       </c>
-      <c r="J229" s="56" t="s">
+      <c r="J229" s="55" t="s">
         <v>2314</v>
       </c>
-      <c r="K229" s="65" t="s">
+      <c r="K229" s="64" t="s">
         <v>2318</v>
       </c>
-      <c r="L229" s="56" t="s">
+      <c r="L229" s="55" t="s">
         <v>2248</v>
       </c>
     </row>
@@ -20032,7 +20032,7 @@
       <c r="H238" s="8">
         <v>10.14</v>
       </c>
-      <c r="I238" s="67">
+      <c r="I238" s="66">
         <v>15927077489</v>
       </c>
       <c r="J238" s="8" t="s">
@@ -20464,7 +20464,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A250" s="49" t="s">
+      <c r="A250" s="48" t="s">
         <v>1927</v>
       </c>
       <c r="B250" s="7" t="s">
@@ -20950,7 +20950,7 @@
       <c r="J262" s="8" t="s">
         <v>2462</v>
       </c>
-      <c r="K262" s="72" t="s">
+      <c r="K262" s="71" t="s">
         <v>2487</v>
       </c>
       <c r="L262" s="8" t="s">
@@ -20988,7 +20988,7 @@
       <c r="J263" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="K263" s="72" t="s">
+      <c r="K263" s="71" t="s">
         <v>2487</v>
       </c>
       <c r="L263" s="8" t="s">
@@ -21026,7 +21026,7 @@
       <c r="J264" s="8" t="s">
         <v>2472</v>
       </c>
-      <c r="K264" s="72" t="s">
+      <c r="K264" s="71" t="s">
         <v>2487</v>
       </c>
       <c r="L264" s="8" t="s">
@@ -21064,7 +21064,7 @@
       <c r="J265" s="8" t="s">
         <v>2478</v>
       </c>
-      <c r="K265" s="72" t="s">
+      <c r="K265" s="71" t="s">
         <v>2487</v>
       </c>
       <c r="L265" s="8" t="s">
@@ -21102,7 +21102,7 @@
       <c r="J266" s="8" t="s">
         <v>2486</v>
       </c>
-      <c r="K266" s="72" t="s">
+      <c r="K266" s="71" t="s">
         <v>2487</v>
       </c>
       <c r="L266" s="8" t="s">
@@ -21153,28 +21153,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A137 K121:K124 F89:F120 B120:B124 A218:L229 A243:L243 A1:E120 G1:N120 F1:F85 N125:N266 IW1:XFD1048576 O1:IV266 M179:M266 A268:IV1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218:B229">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:D229 F218:J229">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW243:XFD243">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D255">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.21" right="0.16" top="0.27" bottom="0.16" header="0.24" footer="0.16"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -21187,8 +21187,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CP81"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21209,18 +21209,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -23976,7 +23976,7 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="46" t="s">
         <v>1884</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -24000,7 +24000,7 @@
       <c r="H66" s="8" t="s">
         <v>1916</v>
       </c>
-      <c r="I66" s="46">
+      <c r="I66" s="45">
         <v>84818442</v>
       </c>
       <c r="J66" s="8" t="s">
@@ -24012,10 +24012,10 @@
       <c r="L66" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="M66" s="48"/>
+      <c r="M66" s="47"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="51">
+      <c r="A67" s="50">
         <v>42889</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -24053,7 +24053,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="51">
+      <c r="A68" s="50">
         <v>42890</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -24091,112 +24091,112 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="54" t="s">
         <v>1738</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="54" t="s">
         <v>2113</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="54" t="s">
         <v>2114</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="54" t="s">
         <v>2115</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="55" t="s">
         <v>1235</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="54" t="s">
         <v>2116</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="55" t="s">
         <v>2117</v>
       </c>
-      <c r="I69" s="55" t="s">
+      <c r="I69" s="54" t="s">
         <v>2118</v>
       </c>
-      <c r="J69" s="56" t="s">
+      <c r="J69" s="55" t="s">
         <v>2119</v>
       </c>
-      <c r="K69" s="55" t="s">
+      <c r="K69" s="54" t="s">
         <v>2023</v>
       </c>
-      <c r="L69" s="56"/>
+      <c r="L69" s="55"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="56">
+      <c r="A70" s="55">
         <v>6.6</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="54" t="s">
         <v>2120</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="54" t="s">
         <v>2121</v>
       </c>
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="55" t="s">
         <v>2122</v>
       </c>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="55" t="s">
         <v>1235</v>
       </c>
-      <c r="F70" s="55" t="s">
+      <c r="F70" s="54" t="s">
         <v>2123</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="54" t="s">
         <v>2124</v>
       </c>
-      <c r="I70" s="55" t="s">
+      <c r="I70" s="54" t="s">
         <v>2125</v>
       </c>
-      <c r="J70" s="55" t="s">
+      <c r="J70" s="54" t="s">
         <v>2126</v>
       </c>
-      <c r="K70" s="55" t="s">
+      <c r="K70" s="54" t="s">
         <v>2023</v>
       </c>
-      <c r="L70" s="56"/>
+      <c r="L70" s="55"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="56">
+      <c r="A71" s="55">
         <v>6.6</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="54" t="s">
         <v>2127</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="54" t="s">
         <v>2128</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="57" t="s">
         <v>2129</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="55" t="s">
         <v>1235</v>
       </c>
-      <c r="F71" s="55" t="s">
+      <c r="F71" s="54" t="s">
         <v>2130</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="H71" s="56" t="s">
+      <c r="H71" s="55" t="s">
         <v>2131</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I71" s="57">
         <v>15327165979</v>
       </c>
-      <c r="J71" s="59" t="s">
+      <c r="J71" s="58" t="s">
         <v>2132</v>
       </c>
-      <c r="K71" s="55" t="s">
+      <c r="K71" s="54" t="s">
         <v>2023</v>
       </c>
-      <c r="L71" s="56"/>
+      <c r="L71" s="55"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="8">
@@ -24208,13 +24208,13 @@
       <c r="C72" s="7" t="s">
         <v>2134</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="45" t="s">
         <v>2135</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>1235</v>
       </c>
-      <c r="F72" s="60" t="s">
+      <c r="F72" s="59" t="s">
         <v>2136</v>
       </c>
       <c r="G72" s="8" t="s">
@@ -24223,10 +24223,10 @@
       <c r="H72" s="8" t="s">
         <v>2137</v>
       </c>
-      <c r="I72" s="46">
+      <c r="I72" s="45">
         <v>15623192203</v>
       </c>
-      <c r="J72" s="46" t="s">
+      <c r="J72" s="45" t="s">
         <v>2138</v>
       </c>
       <c r="K72" s="8" t="s">
@@ -24238,37 +24238,37 @@
       <c r="A73" s="9">
         <v>6.6</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="60" t="s">
         <v>2203</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="60" t="s">
         <v>2204</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="60" t="s">
         <v>2205</v>
       </c>
-      <c r="E73" s="62" t="s">
+      <c r="E73" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F73" s="61" t="s">
+      <c r="F73" s="60" t="s">
         <v>2206</v>
       </c>
-      <c r="G73" s="61" t="s">
+      <c r="G73" s="60" t="s">
         <v>1908</v>
       </c>
-      <c r="H73" s="63">
+      <c r="H73" s="62">
         <v>21636</v>
       </c>
-      <c r="I73" s="61" t="s">
+      <c r="I73" s="60" t="s">
         <v>2207</v>
       </c>
-      <c r="J73" s="64" t="s">
+      <c r="J73" s="63" t="s">
         <v>2208</v>
       </c>
-      <c r="K73" s="62" t="s">
+      <c r="K73" s="61" t="s">
         <v>2146</v>
       </c>
-      <c r="L73" s="64" t="s">
+      <c r="L73" s="63" t="s">
         <v>2209</v>
       </c>
       <c r="M73" s="9">
@@ -24288,7 +24288,7 @@
       <c r="D74" s="8" t="s">
         <v>2212</v>
       </c>
-      <c r="E74" s="62" t="s">
+      <c r="E74" s="61" t="s">
         <v>1889</v>
       </c>
       <c r="F74" s="7" t="s">
@@ -24306,7 +24306,7 @@
       <c r="J74" s="8" t="s">
         <v>2215</v>
       </c>
-      <c r="K74" s="62" t="s">
+      <c r="K74" s="61" t="s">
         <v>2146</v>
       </c>
       <c r="L74" s="8" t="s">
@@ -24317,116 +24317,116 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="54" t="s">
         <v>2217</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="54" t="s">
         <v>2218</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D75" s="55" t="s">
         <v>2219</v>
       </c>
-      <c r="E75" s="62" t="s">
+      <c r="E75" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="G75" s="56" t="s">
+      <c r="G75" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="H75" s="55" t="s">
         <v>690</v>
       </c>
-      <c r="I75" s="55" t="s">
+      <c r="I75" s="54" t="s">
         <v>691</v>
       </c>
-      <c r="J75" s="56" t="s">
+      <c r="J75" s="55" t="s">
         <v>2229</v>
       </c>
-      <c r="K75" s="65" t="s">
+      <c r="K75" s="64" t="s">
         <v>2244</v>
       </c>
-      <c r="L75" s="56" t="s">
+      <c r="L75" s="55" t="s">
         <v>2245</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="55" t="s">
         <v>2242</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="54" t="s">
         <v>2220</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="54" t="s">
         <v>2221</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="55" t="s">
         <v>2222</v>
       </c>
-      <c r="E76" s="62" t="s">
+      <c r="E76" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F76" s="55" t="s">
+      <c r="F76" s="54" t="s">
         <v>2230</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="55" t="s">
         <v>2231</v>
       </c>
-      <c r="I76" s="55" t="s">
+      <c r="I76" s="54" t="s">
         <v>2232</v>
       </c>
-      <c r="J76" s="56" t="s">
+      <c r="J76" s="55" t="s">
         <v>2233</v>
       </c>
-      <c r="K76" s="65" t="s">
+      <c r="K76" s="64" t="s">
         <v>2244</v>
       </c>
-      <c r="L76" s="56" t="s">
+      <c r="L76" s="55" t="s">
         <v>2247</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="55" t="s">
         <v>1884</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="54" t="s">
         <v>2223</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="54" t="s">
         <v>2224</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D77" s="55" t="s">
         <v>2225</v>
       </c>
-      <c r="E77" s="62" t="s">
+      <c r="E77" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="F77" s="55" t="s">
+      <c r="F77" s="54" t="s">
         <v>2234</v>
       </c>
-      <c r="G77" s="56" t="s">
+      <c r="G77" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="H77" s="55" t="s">
         <v>2235</v>
       </c>
-      <c r="I77" s="55" t="s">
+      <c r="I77" s="54" t="s">
         <v>2236</v>
       </c>
-      <c r="J77" s="56" t="s">
+      <c r="J77" s="55" t="s">
         <v>2237</v>
       </c>
-      <c r="K77" s="65" t="s">
+      <c r="K77" s="64" t="s">
         <v>2244</v>
       </c>
-      <c r="L77" s="56" t="s">
+      <c r="L77" s="55" t="s">
         <v>2249</v>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       <c r="D78" s="8" t="s">
         <v>2228</v>
       </c>
-      <c r="E78" s="62" t="s">
+      <c r="E78" s="61" t="s">
         <v>1889</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -24461,7 +24461,7 @@
       <c r="J78" s="8" t="s">
         <v>2241</v>
       </c>
-      <c r="K78" s="65" t="s">
+      <c r="K78" s="64" t="s">
         <v>2244</v>
       </c>
       <c r="L78" s="8" t="s">
@@ -24469,7 +24469,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" s="13" customFormat="1">
-      <c r="A79" s="68">
+      <c r="A79" s="67">
         <v>6.4</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -24490,7 +24490,7 @@
       <c r="G79" s="12" t="s">
         <v>1908</v>
       </c>
-      <c r="H79" s="69">
+      <c r="H79" s="68">
         <v>7.1</v>
       </c>
       <c r="I79" s="12" t="s">
@@ -24506,41 +24506,41 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="64" customFormat="1">
-      <c r="A80" s="70">
+    <row r="80" spans="1:13" s="63" customFormat="1">
+      <c r="A80" s="69">
         <v>6.6</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="60" t="s">
         <v>2414</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="60" t="s">
         <v>2415</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="D80" s="63" t="s">
         <v>2416</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="63" t="s">
         <v>1889</v>
       </c>
-      <c r="F80" s="61" t="s">
+      <c r="F80" s="60" t="s">
         <v>2417</v>
       </c>
-      <c r="G80" s="61" t="s">
+      <c r="G80" s="60" t="s">
         <v>1908</v>
       </c>
-      <c r="H80" s="64">
+      <c r="H80" s="63">
         <v>10.26</v>
       </c>
-      <c r="I80" s="61" t="s">
+      <c r="I80" s="60" t="s">
         <v>2418</v>
       </c>
-      <c r="J80" s="64" t="s">
+      <c r="J80" s="63" t="s">
         <v>2419</v>
       </c>
-      <c r="K80" s="64" t="s">
+      <c r="K80" s="63" t="s">
         <v>2412</v>
       </c>
-      <c r="L80" s="64" t="s">
+      <c r="L80" s="63" t="s">
         <v>2420</v>
       </c>
     </row>
@@ -24557,22 +24557,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="17" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="16" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B1048576 B1:B50 B56 B75:B78">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW1:XFD1048576 A1:L50 L56 M1:M56 A56:J56 N1:IV59 N61:IV65 N69:IV72 A90:J1048576 A75:D78 F75:IV78 K82:IV1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -24602,18 +24602,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -24944,10 +24944,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="23" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -24970,18 +24970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -25055,10 +25055,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="21" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25080,18 +25080,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -25162,10 +25162,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="19" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="18" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
